--- a/Affordance Norms Collaborators.xlsx
+++ b/Affordance Norms Collaborators.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8614ede61265de7b/Documents/GitHub/BOI-Norms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A289329F-76DE-4C21-B361-162685C186DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A289329F-76DE-4C21-B361-162685C186DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF56100C-C7E3-4925-9CDE-613E59D9CE79}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{26583071-EE1F-40DA-9FC4-BFC9F48F1DC5}"/>
   </bookViews>
@@ -575,7 +575,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Affordance Norms Collaborators.xlsx
+++ b/Affordance Norms Collaborators.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8614ede61265de7b/Documents/GitHub/BOI-Norms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\OneDrive\Documents\GitHub\BOI-Norms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A289329F-76DE-4C21-B361-162685C186DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF56100C-C7E3-4925-9CDE-613E59D9CE79}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CC5C85-E2B0-4F0A-B764-D480579F9107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{26583071-EE1F-40DA-9FC4-BFC9F48F1DC5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Testing Site</t>
   </si>
@@ -203,13 +203,16 @@
   </si>
   <si>
     <t>Programmed?</t>
+  </si>
+  <si>
+    <t>0000-0001-5106-5419</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +224,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -253,10 +263,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -276,9 +287,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -316,7 +327,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -422,7 +433,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -564,7 +575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -575,7 +586,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -731,6 +742,9 @@
       </c>
       <c r="E7" t="s">
         <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
